--- a/doc/task_doc/任务安排.xlsx
+++ b/doc/task_doc/任务安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>任务分工</t>
   </si>
@@ -45,11 +45,17 @@
 3. 主题更换（文字颜色、字体）</t>
   </si>
   <si>
+    <t>田佳析</t>
+  </si>
+  <si>
     <t>登录、注册</t>
   </si>
   <si>
     <t>1. 用户登录（检查是否已经注册，请求数据以检查登录信息是否正确）
 2. 用户注册（本地检查信息是否合规，发送数据以申请添加用户）</t>
+  </si>
+  <si>
+    <t>徐正斐</t>
   </si>
   <si>
     <t>邮件收发、管理</t>
@@ -61,6 +67,9 @@
 4. 标记已读、删除邮件、保存草稿</t>
   </si>
   <si>
+    <t>陈鸿韬</t>
+  </si>
+  <si>
     <t>函数耦合、测试</t>
   </si>
   <si>
@@ -69,6 +78,9 @@
 3. 同函数作者 debug</t>
   </si>
   <si>
+    <t>宋尚儒</t>
+  </si>
+  <si>
     <t>server</t>
   </si>
   <si>
@@ -79,10 +91,16 @@
 2. 多线程</t>
   </si>
   <si>
+    <t>常诗冉</t>
+  </si>
+  <si>
     <t>1. 设计数据库模式
 2. 邮件、联系人等信息的增删改查</t>
   </si>
   <si>
+    <t>赵旭</t>
+  </si>
+  <si>
     <t>文档</t>
   </si>
   <si>
@@ -97,6 +115,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>编码及文档规范：</t>
     </r>
     <r>
@@ -145,9 +171,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -203,7 +229,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,19 +329,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,90 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -347,6 +373,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,97 +421,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,67 +523,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,60 +575,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,147 +604,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -782,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,15 +819,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
@@ -1141,7 +1161,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79310344827586" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1173,13 +1193,13 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="8"/>
     </row>
-    <row r="3" ht="95" customHeight="true" spans="1:4">
-      <c r="A3" s="3">
+    <row r="3" ht="95" customHeight="true" spans="1:5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1188,106 +1208,124 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" ht="40" customHeight="true" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" ht="40" customHeight="true" spans="1:5">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" ht="80" customHeight="true" spans="1:4">
-      <c r="A5" s="3">
+    <row r="5" ht="80" customHeight="true" spans="1:5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" ht="58" customHeight="true" spans="1:4">
-      <c r="A6" s="3">
+    <row r="6" ht="58" customHeight="true" spans="1:5">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" ht="34.85" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" ht="34.85" spans="1:5">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="8" ht="34.85" spans="1:4">
-      <c r="A8" s="3">
+    <row r="8" ht="34.85" spans="1:5">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="49" customHeight="true" spans="1:5">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="148" customHeight="true" spans="1:6">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/task_doc/任务安排.xlsx
+++ b/doc/task_doc/任务安排.xlsx
@@ -170,9 +170,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -208,13 +208,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -228,16 +221,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,76 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -329,8 +252,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,6 +289,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -379,6 +379,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,115 +493,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,43 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,8 +564,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,6 +575,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,11 +626,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,41 +648,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,148 +663,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79310344827586" defaultRowHeight="14.5" outlineLevelCol="5"/>
